--- a/biology/Médecine/Cytotrophoblaste/Cytotrophoblaste.xlsx
+++ b/biology/Médecine/Cytotrophoblaste/Cytotrophoblaste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le trophoblaste de l'embryon humain, au 7e jour, va donner le syncytiotrophoblaste et le cytotrophoblaste (nom masculin * cyto : du grec kutos [cyto-, -cyte, -cytie], cellule ; * tropho : du grec trophê [troph(o)-, -trophie], nourriture, développement ; * blaste : du grec blastos [-blaste, blast(o)-], germe, qui a un rapport avec le développement embryonnaire), qui est formé par les cellules accolées au pôle embryonnaire du blastocyste. Le cytotrophoblaste est aussi appelé couche de Langhans en raison de Theodor Langhans qui en fit la description.  
 Il est constitué de cellules individualisées mononucléées.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le trophoblaste (ou trophectoderme) est présent dès le 5e jour du développement embryonnaire, autour de l'embryon. C'est lui qui va permettre la nidation,
 entre le 8e et le 10e jour, par la libération d'enzymes spécifiques, puis il se différenciera pour former le placenta. Il a maintenant pour rôle essentiel l'élaboration d'annexes embryonnaires adaptées à la nutrition de l'embryon.
